--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1900.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1900.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086C98EC-1904-42BE-8BB3-450665BF2FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEB92BB-BE08-47C6-A389-07BF26A9EAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -214,12 +219,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>чc-м</t>
-  </si>
-  <si>
-    <t>чc-ж</t>
-  </si>
-  <si>
     <t>чс-о</t>
   </si>
   <si>
@@ -239,6 +238,12 @@
   </si>
   <si>
     <t>стр. VIII, 15, 93</t>
+  </si>
+  <si>
+    <t>чс-м</t>
+  </si>
+  <si>
+    <t>чс-ж</t>
   </si>
 </sst>
 </file>
@@ -248,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,11 +655,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -667,21 +672,21 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="10" max="10" width="11.41796875" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" customWidth="1"/>
+    <col min="15" max="15" width="10.83984375" customWidth="1"/>
+    <col min="16" max="16" width="12.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -713,31 +718,31 @@
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -801,7 +806,7 @@
         <v>-4.3530546817137861E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -865,7 +870,7 @@
         <v>1.449368330852252E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -929,7 +934,7 @@
         <v>-1.9280056364433307E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -993,7 +998,7 @@
         <v>5.8268443435800066E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>-4.517344297746817E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +1126,7 @@
         <v>-1.8534074865009131E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1190,7 @@
         <v>-1.5706187096526492E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>-0.12189477225667744</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1316,7 @@
         <v>-2.2644683710382196E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>1.9388339835622048E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1442,7 @@
         <v>-3.14347198111804E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>-3.5825099607407651E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v>6.3340928500547733E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>7.8834297201879622E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1689,7 +1694,7 @@
         <v>-2.292498584134961E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>9.6250643103026334E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1815,7 +1820,7 @@
         <v>-1.2652853813552412E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1878,7 +1883,7 @@
         <v>-0.11214213083809454</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1941,7 +1946,7 @@
         <v>4.7260289801482003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2004,7 +2009,7 @@
         <v>5.3259826881699723E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2067,7 +2072,7 @@
         <v>-3.5077635652406514E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>5.8412138657622847E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2193,7 +2198,7 @@
         <v>-5.9627345753657579E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>-5.8878840227080786E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2319,7 +2324,7 @@
         <v>-3.4026310252123437E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2382,7 +2387,7 @@
         <v>-1.8848313465802846E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2445,7 +2450,7 @@
         <v>-1.0993383393135048E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2508,7 +2513,7 @@
         <v>2.1192305071480178E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2571,7 +2576,7 @@
         <v>3.5636449313756202E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2634,7 +2639,7 @@
         <v>0.14123171738236096</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2697,7 +2702,7 @@
         <v>-9.2458897894687198E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2760,7 +2765,7 @@
         <v>1.6008735355850234E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2823,7 +2828,7 @@
         <v>-3.0616191896417178E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2886,7 +2891,7 @@
         <v>-1.0103584333315041E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2949,7 +2954,7 @@
         <v>-0.10316270048410559</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3012,7 +3017,7 @@
         <v>1.8822958472519247E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3075,7 +3080,7 @@
         <v>1.9506280866714576E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3138,7 +3143,7 @@
         <v>6.7604833585363622E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3201,7 +3206,7 @@
         <v>2.1358355898669856E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3264,7 +3269,7 @@
         <v>-3.450614435216437E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3327,7 +3332,7 @@
         <v>-1.4318810445182351E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3390,7 +3395,7 @@
         <v>7.5419773651358213E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3453,7 +3458,7 @@
         <v>-2.9765176151542505E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>-2.3447676825803399E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3579,7 +3584,7 @@
         <v>7.9810944410720452E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3642,7 +3647,7 @@
         <v>-2.1708279330319158E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3705,7 +3710,7 @@
         <v>-3.3153010620239343E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3768,7 +3773,7 @@
         <v>-2.4227222671058257E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3831,7 +3836,7 @@
         <v>-0.12250283601825629</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3894,7 +3899,7 @@
         <v>4.1177078977057135E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3957,14 +3962,14 @@
         <v>4.6585307044765045E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>
@@ -3995,7 +4000,7 @@
         <v>3055030</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="B55" s="4">
         <f>B52-B54</f>
         <v>0</v>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1900.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1900.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEB92BB-BE08-47C6-A389-07BF26A9EAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC50E4D0-B5AF-4338-9467-E0974B0E71F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>губ</t>
   </si>
   <si>
-    <t>чж PYY</t>
-  </si>
-  <si>
     <t>р</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>чс-ж</t>
+  </si>
+  <si>
+    <t>чж YY</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -691,55 +691,55 @@
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -3901,7 +3901,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3">
         <v>98379841</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1900.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC50E4D0-B5AF-4338-9467-E0974B0E71F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C887334C-A7D3-4CAD-991C-3B63246A7D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="84735" yWindow="1755" windowWidth="29700" windowHeight="16770" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -672,7 +672,8 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
